--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="680" windowWidth="26480" windowHeight="23880" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="29460" yWindow="620" windowWidth="25440" windowHeight="23420" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -137,13 +137,22 @@
   </si>
   <si>
     <t>Capacity_SD</t>
+  </si>
+  <si>
+    <t>Spawner1Egg</t>
+  </si>
+  <si>
+    <t>Spawner2Egg</t>
+  </si>
+  <si>
+    <t>Spawner3Egg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,13 +176,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,10 +218,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,8 +232,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,13 +616,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,10 +673,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="str">
@@ -647,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -659,21 +702,21 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C20" si="0">A3&amp;"_"&amp;B3</f>
+        <f t="shared" ref="C3:C21" si="0">A3&amp;"_"&amp;B3</f>
         <v>Fry_Parr</v>
       </c>
       <c r="D3" s="2">
@@ -683,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -702,10 +745,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="str">
@@ -719,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -738,10 +781,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="str">
@@ -755,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -774,10 +817,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -791,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -810,10 +853,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="str">
@@ -827,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -846,10 +889,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="str">
@@ -863,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -882,52 +925,52 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGDSmolt_OceanAdult1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OceanAdult1_LGDAdult2</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OceanAdult1_OceanAdult2</v>
-      </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -935,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>100000000</v>
+        <v>1E+20</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -954,362 +997,398 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OceanAdult1_OceanAdult2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OceanAdult2_LGDAdult3</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>4</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>LGDAdult1_TrapAdult1</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>LGDAdult2_TrapAdult2</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>LGDAdult3_TrapAdult3</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>4</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>TrapAdult1_Spawner1</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>TrapAdult2_Spawner2</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>3</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>TrapAdult3_Spawner3</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner1_Egg</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Spawner1_Spawner1Egg</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner2_Egg</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Spawner2_Spawner2Egg</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner3_Egg</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Spawner3_Spawner3Egg</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="2">
         <v>0</v>
       </c>
     </row>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29460" yWindow="620" windowWidth="25440" windowHeight="23420" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="25940" yWindow="5060" windowWidth="22600" windowHeight="16540" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nick</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A616F4A8-FBAB-FC4F-91E1-38E8F2F85CF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If it's used in the model anywhere it should be here</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -146,13 +189,16 @@
   </si>
   <si>
     <t>Spawner3Egg</t>
+  </si>
+  <si>
+    <t>Commets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +235,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -615,14 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +696,7 @@
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -671,8 +730,11 @@
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -708,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -744,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -780,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -816,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -852,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -888,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -924,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1320,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1394,6 +1456,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56095A-1E19-C44D-9DA5-B67F4479EF2C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25940" yWindow="5060" windowWidth="22600" windowHeight="16540" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="3680" yWindow="2060" windowWidth="32120" windowHeight="25380" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -69,23 +70,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Years_From_Fry_Name_Input</t>
-  </si>
-  <si>
     <t>Header_Name</t>
   </si>
   <si>
     <t>Header_Input</t>
   </si>
   <si>
-    <t>Catherine Creek</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -140,18 +135,12 @@
     <t>Spawner2</t>
   </si>
   <si>
-    <t>Year_From_Previous_Stage</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
     <t>runs</t>
   </si>
   <si>
-    <t>pop_name</t>
-  </si>
-  <si>
     <t>scenario</t>
   </si>
   <si>
@@ -191,14 +180,44 @@
     <t>Spawner3Egg</t>
   </si>
   <si>
-    <t>Commets</t>
+    <t>population</t>
+  </si>
+  <si>
+    <t>CC or UGR</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>seed_fry</t>
+  </si>
+  <si>
+    <t>seed_hatchery_smolt</t>
+  </si>
+  <si>
+    <t>scenerio</t>
+  </si>
+  <si>
+    <t>how many years to model</t>
+  </si>
+  <si>
+    <t>runs to model</t>
+  </si>
+  <si>
+    <t>starting fry model seed</t>
+  </si>
+  <si>
+    <t>starting hatchery smolt model seed</t>
+  </si>
+  <si>
+    <t>HatchRelease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,8 +268,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +293,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -277,12 +308,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,8 +329,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC292E9-97EB-034C-8BF7-23DE2DF1D4E6}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,10 +660,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -637,36 +671,79 @@
     </row>
     <row r="2" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
-    </row>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -675,13 +752,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,55 +768,45 @@
     <col min="3" max="3" width="38.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="2" customWidth="1"/>
-    <col min="6" max="11" width="38.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="9" width="38.83203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>A2&amp;"_"&amp;B2</f>
@@ -763,32 +830,26 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C21" si="0">A3&amp;"_"&amp;B3</f>
+        <f t="shared" ref="C3:C22" si="0">A3&amp;"_"&amp;B3</f>
         <v>Fry_Parr</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1E+20</v>
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>165687.37610977169</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -799,19 +860,13 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -835,19 +890,13 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -871,539 +920,446 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PreSmoltHeadwaters_LGDSmolt</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PreSmoltValley_LGDSmolt</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HatchRelease_LGDSmolt</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PreSmoltHeadwaters_LGDSmolt</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGDSmolt_LGDAdult1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.113</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGDSmolt_OceanAdult1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OceanAdult1_LGDAdult2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OceanAdult1_OceanAdult2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OceanAdult2_LGDAdult3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PreSmoltValley_LGDSmolt</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGDAdult1_TrapAdult1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>LGDSmolt_LGDAdult1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>LGDSmolt_OceanAdult1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGDAdult2_TrapAdult2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LGDAdult3_TrapAdult3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OceanAdult1_LGDAdult2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OceanAdult1_OceanAdult2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrapAdult1_Spawner1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OceanAdult2_LGDAdult3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>LGDAdult1_TrapAdult1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>LGDAdult2_TrapAdult2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>LGDAdult3_TrapAdult3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TrapAdult1_Spawner1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TrapAdult2_Spawner2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>TrapAdult2_Spawner2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>TrapAdult3_Spawner3</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>4</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="str">
+      <c r="D19" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1E+20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Spawner1_Spawner1Egg</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner2_Spawner2Egg</v>
-      </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>3257</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1E+20</v>
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>7370834.7000000002</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1411,46 +1367,64 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
-        <v>3</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>Spawner2_Spawner2Egg</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4095</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>36854173.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Spawner3_Spawner3Egg</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>4</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="D22" s="2">
+        <v>5149</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>2456944.9</v>
+      </c>
+      <c r="G22" s="2">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
         <v>0</v>
       </c>
     </row>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56095A-1E19-C44D-9DA5-B67F4479EF2C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C9AEA-883F-1945-B70A-640B29666201}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="2060" windowWidth="32120" windowHeight="25380" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="3660" yWindow="2040" windowWidth="32120" windowHeight="25380" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
     <sheet name="Inputs" sheetId="1" r:id="rId2"/>
     <sheet name="Movement" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Description</t>
   </si>
@@ -117,24 +117,6 @@
     <t>LGDAdult3</t>
   </si>
   <si>
-    <t>TrapAdult1</t>
-  </si>
-  <si>
-    <t>TrapAdult2</t>
-  </si>
-  <si>
-    <t>TrapAdult3</t>
-  </si>
-  <si>
-    <t>Spawner3</t>
-  </si>
-  <si>
-    <t>Spawner1</t>
-  </si>
-  <si>
-    <t>Spawner2</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
@@ -171,15 +153,6 @@
     <t>Capacity_SD</t>
   </si>
   <si>
-    <t>Spawner1Egg</t>
-  </si>
-  <si>
-    <t>Spawner2Egg</t>
-  </si>
-  <si>
-    <t>Spawner3Egg</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -211,6 +184,18 @@
   </si>
   <si>
     <t>HatchRelease</t>
+  </si>
+  <si>
+    <t>LGDAdult</t>
+  </si>
+  <si>
+    <t>TrapAdult</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>TotalEgg</t>
   </si>
 </sst>
 </file>
@@ -671,68 +656,68 @@
     </row>
     <row r="2" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -752,13 +737,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,37 +765,37 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>A2&amp;"_"&amp;B2</f>
-        <v>Egg_Fry</v>
+        <v>TotalEgg_Fry</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -839,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C22" si="0">A3&amp;"_"&amp;B3</f>
+        <f t="shared" ref="C3:C16" si="0">A3&amp;"_"&amp;B3</f>
         <v>Fry_Parr</v>
       </c>
       <c r="D3" s="2">
@@ -866,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -896,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -923,7 +908,7 @@
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -953,7 +938,7 @@
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -983,7 +968,7 @@
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -1160,14 +1145,14 @@
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>LGDAdult1_TrapAdult1</v>
+        <v>LGDAdult_TrapAdult</v>
       </c>
       <c r="D14" s="2">
         <v>0.9</v>
@@ -1190,17 +1175,17 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>LGDAdult2_TrapAdult2</v>
+        <v>TrapAdult_Spawner</v>
       </c>
       <c r="D15" s="2">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="E15" s="2">
         <v>0.01</v>
@@ -1220,211 +1205,31 @@
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>LGDAdult3_TrapAdult3</v>
+        <v>Spawner_Egg</v>
       </c>
       <c r="D16" s="2">
-        <v>0.9</v>
+        <v>3257</v>
       </c>
       <c r="E16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1E+20</v>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>7370834.7000000002</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TrapAdult1_Spawner1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TrapAdult2_Spawner2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TrapAdult3_Spawner3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1E+20</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner1_Spawner1Egg</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3257</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>7370834.7000000002</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner2_Spawner2Egg</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4095</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>36854173.5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Spawner3_Spawner3Egg</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5149</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>2456944.9</v>
-      </c>
-      <c r="G22" s="2">
-        <v>100</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
         <v>0</v>
       </c>
     </row>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C9AEA-883F-1945-B70A-640B29666201}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F841762F-2DD0-D845-B0B5-B0DE07DD3770}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2040" windowWidth="32120" windowHeight="25380" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="1240" yWindow="780" windowWidth="24620" windowHeight="25420" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,16 +828,16 @@
         <v>Fry_Parr</v>
       </c>
       <c r="D3" s="2">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="2">
-        <v>1E-3</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F3" s="6">
         <v>165687.37610977169</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>22359</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0.11</v>
       </c>
       <c r="E6" s="2">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F6" s="2">
         <v>1E+20</v>
@@ -951,7 +951,7 @@
         <v>0.13</v>
       </c>
       <c r="E7" s="2">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F7" s="2">
         <v>1E+20</v>
@@ -978,16 +978,19 @@
         <v>HatchRelease_LGDSmolt</v>
       </c>
       <c r="D8" s="2">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="E8" s="2">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F8" s="2">
         <v>1E+20</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -1005,10 +1008,10 @@
         <v>LGDSmolt_LGDAdult1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>1E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F9" s="2">
         <v>1E+20</v>
@@ -1017,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.113</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1035,10 +1038,10 @@
         <v>LGDSmolt_OceanAdult1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>1E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F10" s="2">
         <v>1E+20</v>
@@ -1047,7 +1050,8 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.88700000000000001</v>
+        <f>1-H9</f>
+        <v>0.93100000000000005</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -1065,10 +1069,10 @@
         <v>OceanAdult1_LGDAdult2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.318</v>
+        <v>0.24</v>
       </c>
       <c r="E11" s="2">
-        <v>0.01</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F11" s="2">
         <v>1E+20</v>
@@ -1077,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0.95099999999999996</v>
+        <v>0.93</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1095,10 +1099,10 @@
         <v>OceanAdult1_OceanAdult2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.318</v>
+        <v>0.24</v>
       </c>
       <c r="E12" s="2">
-        <v>0.01</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F12" s="2">
         <v>1E+20</v>
@@ -1107,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -1125,10 +1129,10 @@
         <v>OceanAdult2_LGDAdult3</v>
       </c>
       <c r="D13" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="2">
-        <v>0.01</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F13" s="2">
         <v>1E+20</v>
@@ -1158,7 +1162,7 @@
         <v>0.9</v>
       </c>
       <c r="E14" s="2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="2">
         <v>1E+20</v>
@@ -1188,7 +1192,7 @@
         <v>0.97</v>
       </c>
       <c r="E15" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F15" s="2">
         <v>1E+20</v>
@@ -1215,16 +1219,16 @@
         <v>Spawner_Egg</v>
       </c>
       <c r="D16" s="2">
-        <v>3257</v>
+        <v>3831</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>7370834.7000000002</v>
+        <v>49138898.203365818</v>
       </c>
       <c r="G16" s="2">
-        <v>1000</v>
+        <v>921</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F841762F-2DD0-D845-B0B5-B0DE07DD3770}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F8154-547E-F44B-8B44-8BA44CC79CE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="780" windowWidth="24620" windowHeight="25420" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="1240" yWindow="780" windowWidth="30940" windowHeight="15360" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Description</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>TotalEgg</t>
+  </si>
+  <si>
+    <t>Wild_Scaler</t>
+  </si>
+  <si>
+    <t>Hatchery_Scaler</t>
   </si>
 </sst>
 </file>
@@ -737,13 +743,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,13 +757,13 @@
     <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="2" customWidth="1"/>
-    <col min="6" max="9" width="38.83203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="9" width="15.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,8 +791,14 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -815,8 +827,14 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -845,8 +863,14 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -875,8 +899,14 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -905,8 +935,14 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -935,8 +971,14 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -965,8 +1007,14 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -995,8 +1043,14 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1079,14 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1056,8 +1116,14 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1152,14 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1116,8 +1188,14 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1224,14 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1176,8 +1260,14 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -1206,8 +1296,14 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1235,6 +1331,12 @@
       </c>
       <c r="I16" s="2">
         <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F8154-547E-F44B-8B44-8BA44CC79CE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3DF33A-FD1A-704C-BF25-68C9F805A2B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="780" windowWidth="30940" windowHeight="15360" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19780" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Description</t>
   </si>
@@ -198,10 +198,13 @@
     <t>TotalEgg</t>
   </si>
   <si>
-    <t>Wild_Scaler</t>
-  </si>
-  <si>
     <t>Hatchery_Scaler</t>
+  </si>
+  <si>
+    <t>PassedAdult</t>
+  </si>
+  <si>
+    <t>Natural_Scaler</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,10 +795,10 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1269,14 +1272,14 @@
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>TrapAdult_Spawner</v>
+        <v>PassedAdult_Spawner</v>
       </c>
       <c r="D15" s="2">
         <v>0.97</v>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3DF33A-FD1A-704C-BF25-68C9F805A2B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A47BC-9319-7547-AFDB-C57D994D2F80}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19780" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="7420" yWindow="1400" windowWidth="33600" windowHeight="19780" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Description</t>
   </si>
@@ -195,16 +195,22 @@
     <t>Spawner</t>
   </si>
   <si>
-    <t>TotalEgg</t>
-  </si>
-  <si>
-    <t>Hatchery_Scaler</t>
-  </si>
-  <si>
     <t>PassedAdult</t>
   </si>
   <si>
-    <t>Natural_Scaler</t>
+    <t>Natural_Cap_Scaler</t>
+  </si>
+  <si>
+    <t>Hatchery_Cap_Scaler</t>
+  </si>
+  <si>
+    <t>TotalSpawner</t>
+  </si>
+  <si>
+    <t>Natural_Prod_Scaler</t>
+  </si>
+  <si>
+    <t>Hatchery_Prod_Scaler</t>
   </si>
 </sst>
 </file>
@@ -746,13 +752,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,10 +769,12 @@
     <col min="4" max="9" width="15.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,22 +803,28 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>A2&amp;"_"&amp;B2</f>
-        <v>TotalEgg_Fry</v>
+        <v>Egg_Fry</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -836,8 +850,14 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -872,8 +892,14 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -908,8 +934,14 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -944,8 +976,14 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -980,8 +1018,14 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1016,8 +1060,14 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1052,8 +1102,14 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1144,14 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1187,14 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1229,14 @@
       <c r="K11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1271,14 @@
       <c r="K12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1233,8 +1313,14 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1269,10 +1355,16 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>40</v>
@@ -1305,17 +1397,23 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Spawner_Egg</v>
+        <v>TotalSpawner_Egg</v>
       </c>
       <c r="D16" s="2">
         <v>3831</v>
@@ -1339,6 +1437,12 @@
         <v>1</v>
       </c>
       <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
     </row>

--- a/UGR_LifeCycleInput.xlsx
+++ b/UGR_LifeCycleInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A47BC-9319-7547-AFDB-C57D994D2F80}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC171C3-1E30-7341-9B18-7CAF11799AFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="1400" windowWidth="33600" windowHeight="19780" activeTab="1" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
+    <workbookView xWindow="1140" yWindow="1460" windowWidth="29860" windowHeight="16940" xr2:uid="{BDC6114A-2371-C44B-9A16-408EBE939B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelHeader" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{158F6C90-8D92-4C4A-ADBC-F175FB10F971}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Transition SD's should match for the choice pairs</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Description</t>
   </si>
@@ -211,23 +244,20 @@
   </si>
   <si>
     <t>Hatchery_Prod_Scaler</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>UGR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,6 +305,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -310,26 +348,31 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -647,29 +690,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC292E9-97EB-034C-8BF7-23DE2DF1D4E6}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="26">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" customHeight="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -679,8 +727,11 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -690,8 +741,11 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" customHeight="1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -702,7 +756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="32" customHeight="1">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -713,7 +767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32" customHeight="1">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -724,7 +778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="32" customHeight="1">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -735,16 +789,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" ht="23" customHeight="1"/>
+    <row r="9" spans="1:5" ht="23" customHeight="1"/>
+    <row r="10" spans="1:5" ht="23" customHeight="1"/>
+    <row r="11" spans="1:5" ht="23" customHeight="1"/>
+    <row r="12" spans="1:5" ht="23" customHeight="1"/>
+    <row r="13" spans="1:5" ht="23" customHeight="1"/>
+    <row r="14" spans="1:5" ht="23" customHeight="1"/>
+    <row r="15" spans="1:5" ht="23" customHeight="1"/>
+    <row r="16" spans="1:5" ht="23" customHeight="1"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{A4FCAA62-837D-B74A-B740-C2F8AF6DF2A4}">
+      <formula1>$E$2:$E$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -754,100 +813,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DFF48-A062-124A-A02D-23ED0D7E0F71}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="15.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="15.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <f>A2&amp;"_"&amp;B2</f>
         <v>Egg_Fry</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2">
@@ -857,39 +916,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" ht="20" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C16" si="0">A3&amp;"_"&amp;B3</f>
         <v>Fry_Parr</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.15</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>165687.37610977169</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>22359</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="H3" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3">
@@ -899,39 +958,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Parr_PreSmoltHeadwaters</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.23</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4">
@@ -941,39 +1000,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Parr_PreSmoltValley</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.77</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5">
@@ -983,39 +1042,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:13" ht="20" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PreSmoltHeadwaters_LGDSmolt</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.06</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1025,39 +1084,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:13" ht="20" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PreSmoltValley_LGDSmolt</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.06</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7">
@@ -1067,39 +1126,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:13" ht="20" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HatchRelease_LGDSmolt</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.68</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8">
@@ -1109,39 +1168,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:13" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LGDSmolt_LGDAdult1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="I9" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9">
@@ -1151,40 +1210,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:13" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LGDSmolt_OceanAdult1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <f>1-H9</f>
         <v>0.93100000000000005</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="I10" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10">
@@ -1194,39 +1253,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:13" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OceanAdult1_LGDAdult2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.24</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.93</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="I11" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11">
@@ -1236,39 +1295,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OceanAdult1_OceanAdult2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.24</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12">
@@ -1278,39 +1337,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OceanAdult2_LGDAdult3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13">
@@ -1320,39 +1379,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:13" ht="20" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LGDAdult_TrapAdult</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14">
@@ -1362,39 +1421,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:13" ht="20" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PassedAdult_Spawner</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.97</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.03</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1E+20</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15">
@@ -1404,39 +1463,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:13" ht="20" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TotalSpawner_Egg</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>3831</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16">
         <v>49138898.203365818</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>921</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="H16" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16">
@@ -1448,6 +1507,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1457,10 +1517,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
